--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\MateiColdea-fwf-api-animal-poc-performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691A17FF-F82B-4D79-A093-FB298C45BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7430E-A77D-402D-928B-8052CDD5EBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-13170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -165,12 +162,6 @@
     <t>POC API Animal</t>
   </si>
   <si>
-    <t>DogApi_Url</t>
-  </si>
-  <si>
-    <t>CatApi_Url</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://dog.ceo/api/breeds/image/random </t>
   </si>
   <si>
@@ -201,23 +192,95 @@
     <t>C:\Users\MateiColdea\Documents\UiPath\MateiColdea-fwf-api-animal-poc-performer\Data\Temp\Picture.png</t>
   </si>
   <si>
-    <t>DogApi_FieldName</t>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
-    <t>CatApi_FieldName</t>
-  </si>
-  <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>dogApi_FieldName</t>
+  </si>
+  <si>
+    <t>catApi_FieldName</t>
+  </si>
+  <si>
+    <t>Api_Tamplate</t>
+  </si>
+  <si>
+    <t>{0}Api_FieldName</t>
+  </si>
+  <si>
+    <t>FieldName_Tamplate</t>
+  </si>
+  <si>
+    <t>{0}Api_Url</t>
+  </si>
+  <si>
+    <t>dogApi_Url</t>
+  </si>
+  <si>
+    <t>catApi_Url</t>
+  </si>
+  <si>
+    <t>OutputReport_SheetName</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>OUtputReport_Path</t>
+  </si>
+  <si>
+    <t>C:\Users\MateiColdea\Documents\UiPath\MateiColdea-fwf-api-animal-poc-dispatcher\Data\Output\OutputReport.xlsx</t>
+  </si>
+  <si>
+    <t>EmailFinal_To</t>
+  </si>
+  <si>
+    <t>EmailFInal_Subject</t>
+  </si>
+  <si>
+    <t>EmailFinal_Body</t>
+  </si>
+  <si>
+    <t>matei.coldea@fwfcompany.com</t>
+  </si>
+  <si>
+    <t>Output Report</t>
+  </si>
+  <si>
+    <t>This is the Output report for the Animal API POC</t>
+  </si>
+  <si>
+    <t>fwf-animal-api-POC-performer</t>
+  </si>
+  <si>
+    <t>API Url</t>
+  </si>
+  <si>
+    <t>API FieldName</t>
+  </si>
+  <si>
+    <t>Naming Tamplates</t>
+  </si>
+  <si>
+    <t>Email Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Output </t>
+  </si>
+  <si>
+    <t>Picture Utils</t>
+  </si>
+  <si>
+    <t>Output Report Utils</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -236,6 +299,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -262,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -272,6 +342,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -636,24 +707,24 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -662,111 +733,188 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B7" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
+      <c r="B11" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
+      <c r="B15" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
+      <c r="B19" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B32" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1782,18 +1930,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1817,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1839,7 +1987,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1850,7 +1998,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1861,53 +2009,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2909,7 +3057,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\MateiColdea-fwf-api-animal-poc-performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7430E-A77D-402D-928B-8052CDD5EBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54C246D-9F7D-46E4-B37E-A37DDEC9FA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-13170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -343,6 +343,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -793,7 +794,7 @@
       <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\MateiColdea-fwf-api-animal-poc-performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54C246D-9F7D-46E4-B37E-A37DDEC9FA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F3E9D5-67D2-400F-8249-1FB3FACF5497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-13170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
